--- a/upload_order_file/ORDER MASTER.xlsx
+++ b/upload_order_file/ORDER MASTER.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panumas\Desktop\All File Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panumas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94310D7D-95C9-4276-883E-B5921614203C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F2B50E-F392-4B52-A612-FCFACA7EF1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F01FDA4C-D8D1-4E82-83A0-7BDE0EDFE6E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="529" xr2:uid="{F01FDA4C-D8D1-4E82-83A0-7BDE0EDFE6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
   <si>
     <t>FG Code Set ABT</t>
   </si>
@@ -59,12 +62,6 @@
     <t>Normal Order</t>
   </si>
   <si>
-    <t>TSESA</t>
-  </si>
-  <si>
-    <t>EXPORT</t>
-  </si>
-  <si>
     <t>Set</t>
   </si>
   <si>
@@ -83,86 +80,74 @@
     <t>Delivery Date</t>
   </si>
   <si>
-    <t>DANA-Special</t>
-  </si>
-  <si>
-    <t>FRONT-T6-PACK12-(-WB)-EXPORT-SNP12-A</t>
-  </si>
-  <si>
-    <t>PARTITION-A1-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGA1206</t>
-  </si>
-  <si>
-    <t>DANA</t>
-  </si>
-  <si>
-    <t>DANA-JB3G3B079KG-A</t>
-  </si>
-  <si>
-    <t>PARTITION-A2-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGA2206</t>
-  </si>
-  <si>
-    <t>PARTITION-B1-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGB1206</t>
-  </si>
-  <si>
-    <t>PARTITION-B2-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGB2206</t>
-  </si>
-  <si>
-    <t>PARTITION-C1-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGC1206</t>
-  </si>
-  <si>
-    <t>PARTITION-C2-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGC2206</t>
-  </si>
-  <si>
-    <t>PARTITION-D1-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGD1206</t>
-  </si>
-  <si>
-    <t>PARTITION-D2-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGD2206</t>
-  </si>
-  <si>
-    <t>PARTITION-E1-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGE1206</t>
-  </si>
-  <si>
-    <t>PARTITION-E2-FRONT-T6-PACK12-(-WB)</t>
-  </si>
-  <si>
-    <t>IAA23GGE2206</t>
+    <t>NHK005</t>
+  </si>
+  <si>
+    <t>NHK005-COVER/TRAY</t>
+  </si>
+  <si>
+    <t>CAA23HHN005X</t>
+  </si>
+  <si>
+    <t>NHK005-SLEEVE L</t>
+  </si>
+  <si>
+    <t>SAA23HHN005L</t>
+  </si>
+  <si>
+    <t>NHK005-SLEEVE W</t>
+  </si>
+  <si>
+    <t>SAA23HHN005W</t>
+  </si>
+  <si>
+    <t>NHK005-CORNER</t>
+  </si>
+  <si>
+    <t>CORNERN005-1770</t>
+  </si>
+  <si>
+    <t>CORNERN005-1440</t>
+  </si>
+  <si>
+    <t>CORNERN005-1125</t>
+  </si>
+  <si>
+    <t>P703</t>
+  </si>
+  <si>
+    <t>NHK</t>
+  </si>
+  <si>
+    <t>P703-NHK005</t>
+  </si>
+  <si>
+    <t>NHK006</t>
+  </si>
+  <si>
+    <t>NHK006-PALLET WOOD</t>
+  </si>
+  <si>
+    <t>PLWOODNHK006</t>
+  </si>
+  <si>
+    <t>NHK005-SET</t>
+  </si>
+  <si>
+    <t>P703-NHK006</t>
+  </si>
+  <si>
+    <t>ANT0222E0046</t>
+  </si>
+  <si>
+    <t>Customer Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,12 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,13 +204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,449 +524,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCF0843-744A-4315-AE2C-109B8E9A8DFB}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1">
-        <v>492</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="3">
-        <v>44488</v>
+      <c r="L2" s="4">
+        <v>44629</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1">
-        <v>246</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="3">
-        <v>44488</v>
+      <c r="L3" s="4">
+        <v>44629</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1">
-        <v>492</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="3">
-        <v>44488</v>
+      <c r="L4" s="4">
+        <v>44629</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1">
-        <v>246</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="3">
-        <v>44488</v>
+      <c r="L5" s="4">
+        <v>44629</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>984</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="3">
-        <v>44488</v>
+      <c r="L6" s="4">
+        <v>44629</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1">
-        <v>492</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="3">
-        <v>44488</v>
+      <c r="L7" s="4">
+        <v>44629</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H8" s="1">
-        <v>492</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="3">
-        <v>44488</v>
+      <c r="L8" s="4">
+        <v>44629</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="3">
-        <v>44488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1">
-        <v>492</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3">
-        <v>44488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="1">
-        <v>246</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3">
-        <v>44488</v>
+      <c r="L9" s="4">
+        <v>44629</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
